--- a/biology/Zoologie/Escargot_des_bois/Escargot_des_bois.xlsx
+++ b/biology/Zoologie/Escargot_des_bois/Escargot_des_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cepaea nemoralis
-L'escargot des bois aussi appelé escargot des haies[1] (Cepaea nemoralis) est une espèce d'escargots de la famille des Helicidae, de la sous-famille des Helicinae, et du genre Cepaea. L'espèce est native d'Europe, où elle est commune, et elle a été introduite en Amérique du Nord.
+L'escargot des bois aussi appelé escargot des haies (Cepaea nemoralis) est une espèce d'escargots de la famille des Helicidae, de la sous-famille des Helicinae, et du genre Cepaea. L'espèce est native d'Europe, où elle est commune, et elle a été introduite en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La coquille est extrêmement variable, ce qui rend sa détermination difficile. Elle peut être rougeâtre, brunâtre, jaune ou blanchâtre, avec une, plusieurs, ou aucune bande brun foncé. La coquille a une largeur de 18 à 25 mm, pour une hauteur de 12 à 22 mm. Il peut être facilement confondu avec Cepaea vindobonensis et surtout Cepaea hortensis, qui se rencontre dans les mêmes habitats. Il se distingue de C. hortensis par la couleur du péristome (renflement sur le bord de la coquille), qui est généralement brun foncé chez C. nemoralis et blanc chez C. hortensis[2], et la forme de leur dard d'amour[3]. Toutefois, dans certaines régions où les espèces cohabitent, C. nemoralis présente aussi un renflement blanc. Dans ce cas, la distinction nécessite l'examen des organes génitaux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coquille est extrêmement variable, ce qui rend sa détermination difficile. Elle peut être rougeâtre, brunâtre, jaune ou blanchâtre, avec une, plusieurs, ou aucune bande brun foncé. La coquille a une largeur de 18 à 25 mm, pour une hauteur de 12 à 22 mm. Il peut être facilement confondu avec Cepaea vindobonensis et surtout Cepaea hortensis, qui se rencontre dans les mêmes habitats. Il se distingue de C. hortensis par la couleur du péristome (renflement sur le bord de la coquille), qui est généralement brun foncé chez C. nemoralis et blanc chez C. hortensis, et la forme de leur dard d'amour. Toutefois, dans certaines régions où les espèces cohabitent, C. nemoralis présente aussi un renflement blanc. Dans ce cas, la distinction nécessite l'examen des organes génitaux.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C. nemoralis est native d'Europe, où elle est largement répandue. Elle a été introduite en Amérique du Nord au cours du 19e siècle[4]. On l'y retrouve à l'est au Québec, en Ontario, en Nouvelle-Écosse, à Terre-Neuve et dans les états de Virginie, de New York et du Massachusetts[5]. On la retrouve aussi sur la côte ouest, en Colombie-Britannique et dans l'état de Washington[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C. nemoralis est native d'Europe, où elle est largement répandue. Elle a été introduite en Amérique du Nord au cours du 19e siècle. On l'y retrouve à l'est au Québec, en Ontario, en Nouvelle-Écosse, à Terre-Neuve et dans les états de Virginie, de New York et du Massachusetts. On la retrouve aussi sur la côte ouest, en Colombie-Britannique et dans l'état de Washington,.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat est très varié et on peut rencontrer cet escargot dans les bois, les haies, les friches, les dunes et les prairies, savanes et brousses tempérées. On le trouve presque partout dans l'ouest de l'Europe jusqu'à 1 200 m dans les Alpes et 2 200 m dans les Pyrénées.
 </t>
@@ -605,47 +623,120 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Cepaea nemoralis a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial d'Helix nemoralis[8].
-Synonymie
-Helix nemoralis Linné, 1778 Protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cepaea nemoralis a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial d'Helix nemoralis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Escargot_des_bois</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Escargot_des_bois</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Helix nemoralis Linné, 1778 Protonyme
 Cepaea leucostoma (Stabile, 1859) [Helix]
 Cepaea cisalpina (Stabile, 1864) [Helix]
 Cepaea erjaveci (Kobelt, 1880) [Helix]
 Cepaea subaustriaca (Bourguignat, 1880) [Helix]
-Cepaea adamii (Kobelt, 1903) [Helix]
-Noms vernaculaires
-Escargot des bois
+Cepaea adamii (Kobelt, 1903) [Helix]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Escargot_des_bois</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Escargot_des_bois</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Escargot des bois
 Escargot des haies</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Escargot_des_bois</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Escargot_des_bois</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Liste des sous-espèces
 Cepaea nemoralis nemoralis
